--- a/Stillbirth_tracking.xlsx
+++ b/Stillbirth_tracking.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,7 +538,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="K2" t="b">
+      <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="inlineStr">
@@ -599,7 +599,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="K3" t="b">
+      <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="inlineStr">
@@ -663,7 +663,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="K4" t="b">
+      <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="inlineStr">
@@ -727,7 +727,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="K5" t="b">
+      <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="inlineStr">
@@ -794,7 +794,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="K6" t="b">
+      <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="inlineStr">
@@ -861,7 +861,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="K7" t="b">
+      <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="inlineStr">
@@ -925,7 +925,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="K8" t="b">
+      <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="inlineStr">
@@ -989,7 +989,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="K9" t="b">
+      <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="inlineStr">
@@ -1026,13 +1026,13 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>3359</v>
+        <v>3297</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1043,21 +1043,21 @@
         </is>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="K10" t="b">
-        <v>1</v>
+      <c r="K10">
+        <v>2</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>LVASA/8/1900/7</t>
+          <t>LVASA/8/1900/40</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1093,35 +1093,38 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>3382</v>
+        <v>3319</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="K11" t="b">
-        <v>1</v>
+      <c r="K11">
+        <v>3</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1130,7 +1133,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>LVASA/8/1732/48</t>
+          <t>LVASA/8/1900/42</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1157,128 +1160,382 @@
     </row>
     <row r="12">
       <c r="A12">
+        <v>3359</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>LVASA/8/1900/7</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>05/03/2024</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>3382</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>LVASA/8/1732/48</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>05/03/2024</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
         <v>4640</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Ibeju-Lekki</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13">
+    <row r="15">
+      <c r="A15">
+        <v>4768</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>LVASA/8/1850/33</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
         <v>5344</v>
       </c>
-      <c r="B13">
+      <c r="B16">
         <v>10</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Ibeju-Lekki</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>LVASA/9/864/3</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>6318</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Ibeju-Lekki</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>tab2</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>MAKANJUOLA MOSHOOD
+ODEYALE OLUWASEGUN DANIEL</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>

--- a/Stillbirth_tracking.xlsx
+++ b/Stillbirth_tracking.xlsx
@@ -355,13 +355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="20" max="20" width="20.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -427,80 +427,120 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Settlement Locality.x</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>enumeration_code.x</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>address.x</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>description_to_aid_house.x</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>mapping_id.x</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>data_entry_personnel.x</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>date_of_mapping.x</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Enumerator.x</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Status.x</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>redcap_repeat_instrument</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>redcap_repeat_instance</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>date_the_death_happened_baby</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>if_you_know_how_far_gone_i</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>lga_name.y</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Settlement Locality.y</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>enumeration_code.y</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>address.y</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>description_to_aid_house.y</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>mapping_id.y</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>data_entry_personnel.y</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>date_of_mapping.y</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Enumerator.y</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Status.y</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Selection</t>
         </is>
@@ -548,26 +588,39 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>18-IGBO-OLOMIO ISHAWO JUNCTION, ISHAWO</t>
+        </is>
+      </c>
+      <c r="N2">
+        <v>48</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Ganiu bello close Igbo olomu isawo road</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>LVASA/12/48/6</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>tab18</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>AYOKU DAMILOLA
 SANNI EZEKIEL</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -609,26 +662,39 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>ADE OSHODI ST. AKINTOMIDE, IJEGUN</t>
+        </is>
+      </c>
+      <c r="N3">
+        <v>1330</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>68 Ade oshodi ijegun</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>LVASA/4/1330/42</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -673,26 +739,39 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>ORILE IDI OGUN, ALAKUKO</t>
+        </is>
+      </c>
+      <c r="N4">
+        <v>152</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>25 Alawode Street</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>LVASA/10/152/69</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>tab54</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>OLUSOJI-AFOLABI OLUWATOSIN
 ODUMERU SAMIAT</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -737,26 +816,39 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>14 BOUNDARY, AJEGUNLE</t>
+        </is>
+      </c>
+      <c r="N5">
+        <v>2340</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>No 20 Boundary Ajegunle</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>LVASA/2/2340/4</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>tab13</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -804,26 +896,39 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>OLORUNSOGO/ELEKO/BALOGUN, ELEKO</t>
+        </is>
+      </c>
+      <c r="N6">
+        <v>854</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>26b, Olorunsogo street</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>LVASA/9/854/35</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -871,26 +976,39 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>84, ISALE EBUTE STREET, ADDO</t>
+        </is>
+      </c>
+      <c r="N7">
+        <v>1900</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Dr Dauda Beyioku str Opposite yemmat close</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
           <t>LVASA/8/1900/24</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -935,26 +1053,34 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>8/10 BOLAJI ONILENLA STREET (ADDO), ADDO</t>
+        </is>
+      </c>
+      <c r="N8">
+        <v>1732</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>LVASA/8/1732/34</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -999,26 +1125,39 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>84, ISALE EBUTE STREET, ADDO</t>
+        </is>
+      </c>
+      <c r="N9">
+        <v>1900</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Building 39,Isale oja ebute street, Addo</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>LVASA/8/1900/39</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1066,26 +1205,39 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>84, ISALE EBUTE STREET, ADDO</t>
+        </is>
+      </c>
+      <c r="N10">
+        <v>1900</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Building 40 is opposite Lasisfasirolani villa house, isale ebute street Addo</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>LVASA/8/1900/40</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1133,26 +1285,44 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>84, ISALE EBUTE STREET, ADDO</t>
+        </is>
+      </c>
+      <c r="N11">
+        <v>1900</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Building 42 is beside building 41 which is behind the building opposite Lasisfasirolani villa house, isale ebute street Addo. It is painted brown  and it's the 2nd to the last buildings in the close</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Building 42 is beside building 41 which is behind the building opposite Lasisfasirolani villa house, isale ebute street Addo. It is painted brown  and it's the 2nd to the last buildings in the close</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>LVASA/8/1900/42</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1200,26 +1370,34 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>84, ISALE EBUTE STREET, ADDO</t>
+        </is>
+      </c>
+      <c r="N12">
+        <v>1900</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>LVASA/8/1900/7</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1264,26 +1442,34 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>8/10 BOLAJI ONILENLA STREET (ADDO), ADDO</t>
+        </is>
+      </c>
+      <c r="N13">
+        <v>1732</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
           <t>LVASA/8/1732/48</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1329,23 +1515,33 @@
           <t>Ibeju-Lekki</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>MOSALASI I, AKODO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>15, Malara Street, Akodo</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1390,26 +1586,39 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>92, LANGBASA ROAD, LANGBASA</t>
+        </is>
+      </c>
+      <c r="N15">
+        <v>1850</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>3, Abayomi street, LANGBASA bus stop by the police station</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
           <t>LVASA/8/1850/33</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1457,26 +1666,39 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
+          <t>ARAROMI RD, ELEKO</t>
+        </is>
+      </c>
+      <c r="N16">
+        <v>864</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Eckon Club building One of Nigeria, Araromi, Eleko</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
           <t>LVASA/9/864/3</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1519,23 +1741,33 @@
           <t>Ibeju-Lekki</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>OKO LOMI, BOGIJE</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Opposite Ahmed Tinubu Road, ologunabo street</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>2024-03-16</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>

--- a/Stillbirth_tracking.xlsx
+++ b/Stillbirth_tracking.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1773,6 +1773,149 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18">
+        <v>6694</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2, Ita mefa Street Poka Epe</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>6870</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Surulere</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>ODOGBOLU / ADETOLA AGUDA STREET, AGUDA</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>70 odogbolu street aguda surulere</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stillbirth_tracking.xlsx
+++ b/Stillbirth_tracking.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1857,142 +1857,349 @@
     </row>
     <row r="20">
       <c r="A20">
+        <v>6694</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2, Ita mefa Street Poka Epe</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Second room</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Other (Specify)</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Mr Lawal</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>07053408074</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>09031600721</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Monday,Wednesday</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>16:39:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
         <v>6870</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>16</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Surulere</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>ODOGBOLU / ADETOLA AGUDA STREET, AGUDA</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>70 odogbolu street aguda surulere</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>tab8</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>JOHNSON-BEZI ANTHONY
 Osemene Joshua Chukwunonso</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>Room 7</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>Spouse/Partner</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>Ifeanyi mere</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>08033714068</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>08067877429</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Y21" t="inlineStr">
         <is>
           <t>Saturday,Sunday</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>08:13:00</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21">
+    <row r="22">
+      <c r="A22">
         <v>8713</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>2</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Ikorodu</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>LABAKA STREET, IBESHE</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Labaka street  Ibeshe road owode Ibeshe. Fadeyi street off Japheth street 1</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>tab18</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>AYOKU DAMILOLA
 SANNI EZEKIEL</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>Labaka street  Ibeshe road owode Ibeshe. Fadeyi street off Japheth street 4a</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>Head of Household</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>Mrs Tyani omotola</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>09056610459</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>8713</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LABAKA STREET, IBESHE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Labaka street  Ibeshe road owode Ibeshe. Fadeyi street off Japheth street 1</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Labaka street  Ibeshe road owode Ibeshe. Fadeyi street off Japheth street 4a</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Mrs Tyani omotola</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>09056610459</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>8844</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>OLALEYE STREET, AMUWO ODOFIN</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Plot 1334A Olaleye Oluwa Street Unity State Amuwo Odofin Lagos</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>tab9</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Mrs Okoli Gold</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>08068037982</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
         <is>
           <t>10:00:00</t>
         </is>

--- a/Stillbirth_tracking.xlsx
+++ b/Stillbirth_tracking.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2205,6 +2205,75 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25">
+        <v>9182</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ALAGBEGBA STREET, ISALE OJA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>72 Capitol Road Isale oja,Agege Lagos</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Room A2</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Mr Salisu</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>07061483848</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stillbirth_tracking.xlsx
+++ b/Stillbirth_tracking.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,37 +570,37 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>1207</v>
+        <v>1408</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Amuwo odofin</t>
+          <t>Ifako-Ijaiye</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ADE OSHODI ST. AKINTOMIDE, IJEGUN</t>
+          <t>ORILE IDI OGUN, ALAKUKO</t>
         </is>
       </c>
       <c r="E3">
-        <v>1330</v>
+        <v>152</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>68 Ade oshodi ijegun</t>
+          <t>25 Alawode Street</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>LVASA/4/1330/42</t>
+          <t>LVASA/10/152/69</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>tab15</t>
+          <t>tab54</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -609,147 +609,142 @@
         </is>
       </c>
       <c r="K3" t="inlineStr">
+        <is>
+          <t>OLUSOJI-AFOLABI OLUWATOSIN
+ODUMERU SAMIAT</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Mr Atobajaye</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>09021951245</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2242</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14 BOUNDARY, AJEGUNLE</t>
+        </is>
+      </c>
+      <c r="E4">
+        <v>2340</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No 20 Boundary Ajegunle</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>LVASA/2/2340/4</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>tab13</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Third room on left</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Other Relative</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Mr Clement Sunday</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>12:53:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>1408</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ifako-Ijaiye</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ORILE IDI OGUN, ALAKUKO</t>
-        </is>
-      </c>
-      <c r="E4">
-        <v>152</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>25 Alawode Street</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>LVASA/10/152/69</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>tab54</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2024-03-07</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>OLUSOJI-AFOLABI OLUWATOSIN
-ODUMERU SAMIAT</t>
-        </is>
-      </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Mr Atobajaye</t>
+          <t>Fatimah Mohammed</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>09021951245</t>
+          <t>08121451503</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+          <t>Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:52:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2242</v>
+        <v>2275</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ajeromi</t>
+          <t>Ibeju-Lekki</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14 BOUNDARY, AJEGUNLE</t>
+          <t>OLORUNSOGO/ELEKO/BALOGUN, ELEKO</t>
         </is>
       </c>
       <c r="E5">
-        <v>2340</v>
+        <v>854</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>No 20 Boundary Ajegunle</t>
+          <t>26b, Olorunsogo street</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>LVASA/2/2340/4</t>
+          <t>LVASA/9/854/35</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>tab13</t>
+          <t>tab2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -759,819 +754,824 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>MAKANJUOLA MOSHOOD
+ODEYALE OLUWASEGUN DANIEL</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>First room by the left</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Fatimah Mohammed</t>
+          <t>Mariam Aina</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>08121451503</t>
+          <t>07058843570</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Thursday,Friday,Saturday,Sunday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:52:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2275</v>
+        <v>3123</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>84, ISALE EBUTE STREET, ADDO</t>
+        </is>
+      </c>
+      <c r="E6">
+        <v>1900</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dr Dauda Beyioku str Opposite yemmat close</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>LVASA/8/1900/24</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>05/03/2024</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Building 24 is built facing the road. It's entrance leads to building 25. It has flowers by the entrance of the 2nd gate</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Mr Safari Awere</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>8033053819</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>9029642991</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>18:40:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>3231</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8/10 BOLAJI ONILENLA STREET (ADDO), ADDO</t>
+        </is>
+      </c>
+      <c r="E7">
+        <v>1732</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>LVASA/8/1732/34</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>05/03/2024</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>23 ADEALU BUS-STOP OFF ABEOKUTA EXPRESSWAY</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>JOHN MONDAY</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>7087494328</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>11:06:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>3285</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>84, ISALE EBUTE STREET, ADDO</t>
+        </is>
+      </c>
+      <c r="E8">
+        <v>1900</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Building 39,Isale oja ebute street, Addo</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>LVASA/8/1900/39</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>05/03/2024</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Building 39 is a building, opposite a small close, beside Lasisfasirolani villa house</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Mrs Rose Odunze</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>9161141405</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>1111111111</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>17:47:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>3297</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>84, ISALE EBUTE STREET, ADDO</t>
+        </is>
+      </c>
+      <c r="E9">
+        <v>1900</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Building 40 is opposite Lasisfasirolani villa house, isale ebute street Addo</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>LVASA/8/1900/40</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>05/03/2024</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Building 40 is opposite Lasisfasirolani villa house, isale ebute street Addo</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Mr Emmanuel Nweke</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>9034159246</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>16:57:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>3319</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>84, ISALE EBUTE STREET, ADDO</t>
+        </is>
+      </c>
+      <c r="E10">
+        <v>1900</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Building 42 is beside building 41 which is behind the building opposite Lasisfasirolani villa house, isale ebute street Addo. It is painted brown  and it's the 2nd to the last buildings in the close</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Building 42 is beside building 41 which is behind the building opposite Lasisfasirolani villa house, isale ebute street Addo. It is painted brown  and it's the 2nd to the last buildings in the close</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>LVASA/8/1900/42</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>05/03/2024</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Building 42 is beside building 41 which is behind the building opposite Lasisfasirolani villa house, isale ebute street Addo. It is painted brown  and it's the 2nd to the last buildings in the close</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Mrs Damilola Ayomide</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>9015018441</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>111111111</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>17:34:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>3359</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>84, ISALE EBUTE STREET, ADDO</t>
+        </is>
+      </c>
+      <c r="E11">
+        <v>1900</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>LVASA/8/1900/7</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>05/03/2024</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>3rd room in the building</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>DENOH AINA</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>8110132440</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>8021400132</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>14:04:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>3382</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8/10 BOLAJI ONILENLA STREET (ADDO), ADDO</t>
+        </is>
+      </c>
+      <c r="E12">
+        <v>1732</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>LVASA/8/1732/48</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>05/03/2024</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>ADEALU BUS-STOP OFF ABEOKUTA EXPRESSWAY</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Mrs oyebola</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>7030943680</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>7030943680</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>10:36:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>4640</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Ibeju-Lekki</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>OLORUNSOGO/ELEKO/BALOGUN, ELEKO</t>
-        </is>
-      </c>
-      <c r="E6">
-        <v>854</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>26b, Olorunsogo street</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>LVASA/9/854/35</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MOSALASI I, AKODO</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>15, Malara Street, Akodo</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2024-03-09</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>First room by the left</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Second room by the left</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
         <is>
           <t>Head of Household</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Mariam Aina</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>07058843570</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>09:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>3123</v>
-      </c>
-      <c r="B7">
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Wasiu Rashidat</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>07089886624</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>4768</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Eti-Osa</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>84, ISALE EBUTE STREET, ADDO</t>
-        </is>
-      </c>
-      <c r="E7">
-        <v>1900</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Dr Dauda Beyioku str Opposite yemmat close</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>LVASA/8/1900/24</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>92, LANGBASA ROAD, LANGBASA</t>
+        </is>
+      </c>
+      <c r="E14">
+        <v>1850</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3, Abayomi street, LANGBASA bus stop by the police station</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>LVASA/8/1850/33</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>05/03/2024</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Building 24 is built facing the road. It's entrance leads to building 25. It has flowers by the entrance of the 2nd gate</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Head of Household</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Mr Safari Awere</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>8033053819</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>9029642991</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>18:40:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>3231</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Eti-Osa</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8/10 BOLAJI ONILENLA STREET (ADDO), ADDO</t>
-        </is>
-      </c>
-      <c r="E8">
-        <v>1732</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>LVASA/8/1732/34</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>tab21</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>05/03/2024</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>23 ADEALU BUS-STOP OFF ABEOKUTA EXPRESSWAY</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Head of Household</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>JOHN MONDAY</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>7087494328</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>11:06:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>3285</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Eti-Osa</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>84, ISALE EBUTE STREET, ADDO</t>
-        </is>
-      </c>
-      <c r="E9">
-        <v>1900</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Building 39,Isale oja ebute street, Addo</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>LVASA/8/1900/39</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>tab21</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>05/03/2024</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Building 39 is a building, opposite a small close, beside Lasisfasirolani villa house</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Storey building in the compound</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
         <is>
           <t>Spouse/Partner</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Mrs Rose Odunze</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>9161141405</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>1111111111</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>17:47:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>3297</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Eti-Osa</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>84, ISALE EBUTE STREET, ADDO</t>
-        </is>
-      </c>
-      <c r="E10">
-        <v>1900</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Building 40 is opposite Lasisfasirolani villa house, isale ebute street Addo</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>LVASA/8/1900/40</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>tab21</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>05/03/2024</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Building 40 is opposite Lasisfasirolani villa house, isale ebute street Addo</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Head of Household</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>Mr Emmanuel Nweke</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>9034159246</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>16:57:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>3319</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Eti-Osa</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>84, ISALE EBUTE STREET, ADDO</t>
-        </is>
-      </c>
-      <c r="E11">
-        <v>1900</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Building 42 is beside building 41 which is behind the building opposite Lasisfasirolani villa house, isale ebute street Addo. It is painted brown  and it's the 2nd to the last buildings in the close</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Building 42 is beside building 41 which is behind the building opposite Lasisfasirolani villa house, isale ebute street Addo. It is painted brown  and it's the 2nd to the last buildings in the close</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>LVASA/8/1900/42</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>tab21</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>05/03/2024</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Building 42 is beside building 41 which is behind the building opposite Lasisfasirolani villa house, isale ebute street Addo. It is painted brown  and it's the 2nd to the last buildings in the close</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Spouse/Partner</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>Mrs Damilola Ayomide</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>9015018441</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>111111111</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>17:34:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>3359</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Eti-Osa</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>84, ISALE EBUTE STREET, ADDO</t>
-        </is>
-      </c>
-      <c r="E12">
-        <v>1900</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>LVASA/8/1900/7</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>tab21</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>05/03/2024</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>3rd room in the building</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Spouse/Partner</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>DENOH AINA</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>8110132440</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>8021400132</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>14:04:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>3382</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Eti-Osa</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8/10 BOLAJI ONILENLA STREET (ADDO), ADDO</t>
-        </is>
-      </c>
-      <c r="E13">
-        <v>1732</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>LVASA/8/1732/48</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>tab21</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>05/03/2024</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>ADEALU BUS-STOP OFF ABEOKUTA EXPRESSWAY</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>Spouse/Partner</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Mrs oyebola</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>7030943680</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>7030943680</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>10:36:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>4640</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Mrs Cynthia Nwali</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>09014257324</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>5344</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Ibeju-Lekki</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>MOSALASI I, AKODO</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>15, Malara Street, Akodo</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ARAROMI RD, ELEKO</t>
+        </is>
+      </c>
+      <c r="E15">
+        <v>864</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Eckon Club building One of Nigeria, Araromi, Eleko</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>LVASA/9/864/3</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>2024-03-13</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Second room by the left</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Boys quarter room 2</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
         <is>
           <t>Head of Household</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Wasiu Rashidat</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>07089886624</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Nisha Tolulope</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>08086926053</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
         <is>
           <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>16:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>4768</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Eti-Osa</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>92, LANGBASA ROAD, LANGBASA</t>
-        </is>
-      </c>
-      <c r="E15">
-        <v>1850</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3, Abayomi street, LANGBASA bus stop by the police station</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>LVASA/8/1850/33</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>tab21</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>2024-03-13</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>Storey building in the compound</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>Spouse/Partner</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Mrs Cynthia Nwali</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>09014257324</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>Sunday</t>
-        </is>
-      </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>5344</v>
+        <v>6318</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1580,20 +1580,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ARAROMI RD, ELEKO</t>
-        </is>
-      </c>
-      <c r="E16">
-        <v>864</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Eckon Club building One of Nigeria, Araromi, Eleko</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>LVASA/9/864/3</t>
+          <t>OKO LOMI, BOGIJE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Opposite Ahmed Tinubu Road, ologunabo street</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1603,7 +1595,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1614,7 +1606,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Boys quarter room 2</t>
+          <t>First room by right</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -1624,12 +1616,12 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Nisha Tolulope</t>
+          <t>Balogun Folarin</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>08086926053</t>
+          <t>07059028381</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -1639,7 +1631,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
     </row>
@@ -1714,70 +1706,75 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>6318</v>
+        <v>6694</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ibeju-Lekki</t>
+          <t>Epe</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>OKO LOMI, BOGIJE</t>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Opposite Ahmed Tinubu Road, ologunabo street</t>
+          <t>2, Ita mefa Street Poka Epe</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>tab2</t>
+          <t>tab16</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>MAKANJUOLA MOSHOOD
-ODEYALE OLUWASEGUN DANIEL</t>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>First room by right</t>
+          <t>Second room</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Other (Specify)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Balogun Folarin</t>
+          <t>Mr Lawal</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>07059028381</t>
+          <t>07053408074</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>09031600721</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+          <t>Monday,Wednesday</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>16:39:00</t>
         </is>
       </c>
     </row>
@@ -1857,213 +1854,198 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>6694</v>
+        <v>8713</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Epe</t>
+          <t>Ikorodu</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
+          <t>LABAKA STREET, IBESHE</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2, Ita mefa Street Poka Epe</t>
+          <t>Labaka street  Ibeshe road owode Ibeshe. Fadeyi street off Japheth street 1</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>tab16</t>
+          <t>tab18</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>OJO MOSHOOD ADEMUYIWA
-OMOBOLAJI LASISI</t>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Second room</t>
+          <t>Labaka street  Ibeshe road owode Ibeshe. Fadeyi street off Japheth street 4a</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Other (Specify)</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Mr Lawal</t>
+          <t>Mrs Tyani omotola</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>07053408074</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>09031600721</t>
+          <t>09056610459</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Monday,Wednesday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:39:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>6870</v>
+        <v>8713</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Surulere</t>
+          <t>Ikorodu</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ODOGBOLU / ADETOLA AGUDA STREET, AGUDA</t>
+          <t>LABAKA STREET, IBESHE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>70 odogbolu street aguda surulere</t>
+          <t>Labaka street  Ibeshe road owode Ibeshe. Fadeyi street off Japheth street 1</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>tab8</t>
+          <t>tab18</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>JOHNSON-BEZI ANTHONY
-Osemene Joshua Chukwunonso</t>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Room 7</t>
+          <t>Labaka street  Ibeshe road owode Ibeshe. Fadeyi street off Japheth street 4a</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Ifeanyi mere</t>
+          <t>Mrs Tyani omotola</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>08033714068</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>08067877429</t>
+          <t>09056610459</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Saturday,Sunday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>08:13:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>8713</v>
+        <v>8844</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ikorodu</t>
+          <t>Amuwo odofin</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LABAKA STREET, IBESHE</t>
+          <t>OLALEYE STREET, AMUWO ODOFIN</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Labaka street  Ibeshe road owode Ibeshe. Fadeyi street off Japheth street 1</t>
+          <t>Plot 1334A Olaleye Oluwa Street Unity State Amuwo Odofin Lagos</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>tab18</t>
+          <t>tab9</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>AYOKU DAMILOLA
-SANNI EZEKIEL</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>Labaka street  Ibeshe road owode Ibeshe. Fadeyi street off Japheth street 4a</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Mrs Tyani omotola</t>
+          <t>Mrs Okoli Gold</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>09056610459</t>
+          <t>08068037982</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -2074,29 +2056,29 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>8713</v>
+        <v>9182</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ikorodu</t>
+          <t>Agege</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LABAKA STREET, IBESHE</t>
+          <t>ALAGBEGBA STREET, ISALE OJA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Labaka street  Ibeshe road owode Ibeshe. Fadeyi street off Japheth street 1</t>
+          <t>72 Capitol Road Isale oja,Agege Lagos</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>tab18</t>
+          <t>tab12</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2105,170 +2087,37 @@
         </is>
       </c>
       <c r="K23" t="inlineStr">
-        <is>
-          <t>AYOKU DAMILOLA
-SANNI EZEKIEL</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>Labaka street  Ibeshe road owode Ibeshe. Fadeyi street off Japheth street 4a</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>Head of Household</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>Mrs Tyani omotola</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>09056610459</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>8844</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Amuwo odofin</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>OLALEYE STREET, AMUWO ODOFIN</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Plot 1334A Olaleye Oluwa Street Unity State Amuwo Odofin Lagos</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>tab9</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>2024-03-21</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>NA
-NA</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>Spouse/Partner</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>Mrs Okoli Gold</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>08068037982</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>9182</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Agege</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>ALAGBEGBA STREET, ISALE OJA</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>72 Capitol Road Isale oja,Agege Lagos</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>tab12</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>2024-03-22</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>EDOJAH RUTH HAPPINESS
 OLABIYI OLAJIDE</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>Room A2</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>Spouse/Partner</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>Mr Salisu</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>07061483848</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>12:00:00</t>
         </is>
